--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.011420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.011420.xlsx_with_dialog_acts.xlsx
@@ -1573,12 +1573,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3363,12 +3363,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4735,12 +4735,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5343,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5571,12 +5571,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5609,12 +5609,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5723,12 +5723,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6179,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7133,12 +7133,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7209,12 +7209,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8273,12 +8273,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8387,12 +8387,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8501,12 +8501,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8615,12 +8615,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9265,12 +9265,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9531,12 +9531,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9683,12 +9683,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9721,12 +9721,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9835,12 +9835,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9949,12 +9949,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10405,12 +10405,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11663,12 +11663,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12267,12 +12267,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12723,12 +12723,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12799,12 +12799,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13373,12 +13373,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13415,12 +13415,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13453,12 +13453,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14061,12 +14061,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14175,12 +14175,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14631,12 +14631,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14897,12 +14897,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15087,12 +15087,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15581,12 +15581,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15885,12 +15885,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16037,12 +16037,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16151,12 +16151,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16455,12 +16455,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16649,12 +16649,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
